--- a/biology/Zoologie/Eunicella_singularis/Eunicella_singularis.xlsx
+++ b/biology/Zoologie/Eunicella_singularis/Eunicella_singularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gorgone blanche
 Eunicella singularis est une espèce de gorgones (« coraux » de la famille des Gorgoniidae).
@@ -512,9 +524,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une gorgone d'un blanc assez pur, sur lequel se détachent (quand l'animal est vivant et non rétracté) des polypes bruns. Les rameaux sont très souples, grêles, et peuvent être assez longs ; peu ramifiés (ils le sont surtout à la base), ils sont souvent portés dressés à la verticale, mais peuvent aussi s'adapter au relief ou au courant[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une gorgone d'un blanc assez pur, sur lequel se détachent (quand l'animal est vivant et non rétracté) des polypes bruns. Les rameaux sont très souples, grêles, et peuvent être assez longs ; peu ramifiés (ils le sont surtout à la base), ils sont souvent portés dressés à la verticale, mais peuvent aussi s'adapter au relief ou au courant. 
 			Paysage sous-marin de gorgones blanches à Banyuls-sur-Mer
 			Gros plan sur une colonie, polypes visibles
 			Colonie parasitée par Alcyonium coralloides (rouge)
@@ -546,9 +560,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre cette espèce entre 10 et plus de 60 m de profondeur, sur des fonds plutôt rocheux ; elle peut être localement très abondante. Contrairement à d'autres gorgones, cette espèce est plutôt photophile (elle supporte l'ensoleillement direct)[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre cette espèce entre 10 et plus de 60 m de profondeur, sur des fonds plutôt rocheux ; elle peut être localement très abondante. Contrairement à d'autres gorgones, cette espèce est plutôt photophile (elle supporte l'ensoleillement direct). 
 </t>
         </is>
       </c>
